--- a/ゲーム制作Ⅲ(企画書 仕様書).xlsx
+++ b/ゲーム制作Ⅲ(企画書 仕様書).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eb68cc071d4f716a/デスクトップ/リポジトリ/12Tanabe/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\87kyu\OneDrive\デスクトップ\リポジトリ\12Tanabe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{C4EE01E6-953A-4FD4-BBED-C52C11B67341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BFC2AD1-01CF-4CE9-A881-424793F16318}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC38CCAA-B199-46EC-B37E-EFED2E3662BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6465" yWindow="2145" windowWidth="16320" windowHeight="10260" xr2:uid="{CC03F184-FD58-44E3-BCA6-7E0D200899B2}"/>
+    <workbookView xWindow="2310" yWindow="885" windowWidth="14535" windowHeight="9615" activeTab="1" xr2:uid="{CC03F184-FD58-44E3-BCA6-7E0D200899B2}"/>
   </bookViews>
   <sheets>
     <sheet name="企画書" sheetId="1" r:id="rId1"/>
@@ -1098,14 +1098,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1426,7 +1426,7 @@
   </sheetPr>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1528,7 +1528,12 @@
   </sheetPr>
   <dimension ref="A1:S55"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="9" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1536,15 +1541,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="16" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1581,7 +1586,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="17" t="s">
         <v>57</v>
       </c>
       <c r="B4" t="s">
@@ -1598,7 +1603,7 @@
       <c r="S4" s="8"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A5" s="16"/>
+      <c r="A5" s="17"/>
       <c r="B5" t="s">
         <v>55</v>
       </c>
@@ -1613,7 +1618,7 @@
       <c r="S5" s="8"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A6" s="16"/>
+      <c r="A6" s="17"/>
       <c r="B6" t="s">
         <v>54</v>
       </c>
@@ -1628,7 +1633,7 @@
       <c r="S6" s="8"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A7" s="16"/>
+      <c r="A7" s="17"/>
       <c r="B7" t="s">
         <v>53</v>
       </c>
@@ -1643,7 +1648,7 @@
       <c r="S7" s="8"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A8" s="16"/>
+      <c r="A8" s="17"/>
       <c r="B8" t="s">
         <v>52</v>
       </c>
@@ -1658,7 +1663,7 @@
       <c r="S8" s="8"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A9" s="16"/>
+      <c r="A9" s="17"/>
       <c r="B9" t="s">
         <v>51</v>
       </c>
@@ -1673,7 +1678,7 @@
       <c r="S9" s="8"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A10" s="16"/>
+      <c r="A10" s="17"/>
       <c r="B10" t="s">
         <v>50</v>
       </c>
@@ -1699,7 +1704,7 @@
       <c r="S11" s="8"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="18" t="s">
         <v>49</v>
       </c>
       <c r="B12" t="s">
@@ -1716,7 +1721,7 @@
       <c r="S12" s="8"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A13" s="17"/>
+      <c r="A13" s="18"/>
       <c r="B13" t="s">
         <v>48</v>
       </c>
@@ -1731,7 +1736,7 @@
       <c r="S13" s="8"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A14" s="17"/>
+      <c r="A14" s="18"/>
       <c r="B14" t="s">
         <v>44</v>
       </c>
@@ -1746,7 +1751,7 @@
       <c r="S14" s="8"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A15" s="17"/>
+      <c r="A15" s="18"/>
       <c r="B15" t="s">
         <v>47</v>
       </c>
@@ -1761,7 +1766,7 @@
       <c r="S15" s="8"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A16" s="17"/>
+      <c r="A16" s="18"/>
       <c r="B16" t="s">
         <v>42</v>
       </c>
@@ -1787,7 +1792,7 @@
       <c r="S17" s="8"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="18" t="s">
         <v>46</v>
       </c>
       <c r="B18" t="s">
@@ -1804,7 +1809,7 @@
       <c r="S18" s="8"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A19" s="17"/>
+      <c r="A19" s="18"/>
       <c r="B19" t="s">
         <v>45</v>
       </c>
@@ -1819,7 +1824,7 @@
       <c r="S19" s="8"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A20" s="17"/>
+      <c r="A20" s="18"/>
       <c r="B20" t="s">
         <v>44</v>
       </c>
@@ -1834,7 +1839,7 @@
       <c r="S20" s="8"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A21" s="17"/>
+      <c r="A21" s="18"/>
       <c r="B21" t="s">
         <v>43</v>
       </c>
@@ -1849,7 +1854,7 @@
       <c r="S21" s="8"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A22" s="17"/>
+      <c r="A22" s="18"/>
       <c r="B22" t="s">
         <v>42</v>
       </c>
@@ -1875,7 +1880,7 @@
       <c r="S23" s="8"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="17" t="s">
         <v>41</v>
       </c>
       <c r="B24" t="s">
@@ -1892,7 +1897,7 @@
       <c r="S24" s="8"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A25" s="16"/>
+      <c r="A25" s="17"/>
       <c r="B25" t="s">
         <v>38</v>
       </c>
@@ -1907,7 +1912,7 @@
       <c r="S25" s="8"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A26" s="16"/>
+      <c r="A26" s="17"/>
       <c r="B26" t="s">
         <v>40</v>
       </c>
@@ -1933,7 +1938,7 @@
       <c r="S27" s="8"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="17" t="s">
         <v>39</v>
       </c>
       <c r="B28" t="s">
@@ -1950,7 +1955,7 @@
       <c r="S28" s="8"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A29" s="16"/>
+      <c r="A29" s="17"/>
       <c r="B29" t="s">
         <v>38</v>
       </c>
@@ -1965,7 +1970,7 @@
       <c r="S29" s="8"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A30" s="16"/>
+      <c r="A30" s="17"/>
       <c r="B30" t="s">
         <v>37</v>
       </c>
@@ -1980,7 +1985,7 @@
       <c r="S30" s="8"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A31" s="16"/>
+      <c r="A31" s="17"/>
       <c r="B31" t="s">
         <v>36</v>
       </c>
@@ -2006,7 +2011,7 @@
       <c r="S32" s="8"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="17" t="s">
         <v>35</v>
       </c>
       <c r="B33" t="s">
@@ -2023,7 +2028,7 @@
       <c r="S33" s="8"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A34" s="16"/>
+      <c r="A34" s="17"/>
       <c r="B34" t="s">
         <v>33</v>
       </c>
@@ -2038,7 +2043,7 @@
       <c r="S34" s="8"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A35" s="16"/>
+      <c r="A35" s="17"/>
       <c r="B35" t="s">
         <v>32</v>
       </c>
@@ -2064,7 +2069,7 @@
       <c r="S36" s="8"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="17" t="s">
         <v>31</v>
       </c>
       <c r="B37" t="s">
@@ -2081,7 +2086,7 @@
       <c r="S37" s="8"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A38" s="16"/>
+      <c r="A38" s="17"/>
       <c r="B38" t="s">
         <v>29</v>
       </c>
@@ -2107,7 +2112,7 @@
       <c r="S39" s="8"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="17" t="s">
         <v>28</v>
       </c>
       <c r="B40" t="s">
@@ -2124,7 +2129,7 @@
       <c r="S40" s="8"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A41" s="16"/>
+      <c r="A41" s="17"/>
       <c r="B41" t="s">
         <v>27</v>
       </c>
@@ -2139,7 +2144,7 @@
       <c r="S41" s="8"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A42" s="16"/>
+      <c r="A42" s="17"/>
       <c r="B42" t="s">
         <v>26</v>
       </c>
@@ -2165,7 +2170,7 @@
       <c r="S43" s="8"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B44" t="s">
@@ -2182,7 +2187,7 @@
       <c r="S44" s="8"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A45" s="16"/>
+      <c r="A45" s="17"/>
       <c r="B45" t="s">
         <v>23</v>
       </c>
@@ -2197,7 +2202,7 @@
       <c r="S45" s="8"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A46" s="16"/>
+      <c r="A46" s="17"/>
       <c r="B46" t="s">
         <v>22</v>
       </c>
@@ -2223,7 +2228,7 @@
       <c r="S47" s="8"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="17" t="s">
         <v>21</v>
       </c>
       <c r="B48" t="s">
@@ -2240,7 +2245,7 @@
       <c r="S48" s="8"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A49" s="16"/>
+      <c r="A49" s="17"/>
       <c r="B49" t="s">
         <v>19</v>
       </c>
@@ -2255,7 +2260,7 @@
       <c r="S49" s="8"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A50" s="16"/>
+      <c r="A50" s="17"/>
       <c r="B50" t="s">
         <v>18</v>
       </c>
@@ -2270,7 +2275,7 @@
       <c r="S50" s="8"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A51" s="16"/>
+      <c r="A51" s="17"/>
       <c r="B51" t="s">
         <v>17</v>
       </c>
@@ -2297,7 +2302,7 @@
       <c r="S52" s="9"/>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A53" s="16" t="s">
+      <c r="A53" s="17" t="s">
         <v>16</v>
       </c>
       <c r="B53" t="s">
@@ -2315,7 +2320,7 @@
       <c r="S53" s="6"/>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A54" s="16"/>
+      <c r="A54" s="17"/>
       <c r="B54" t="s">
         <v>14</v>
       </c>
@@ -2331,7 +2336,7 @@
       <c r="S54" s="6"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A55" s="16"/>
+      <c r="A55" s="17"/>
       <c r="B55" t="s">
         <v>13</v>
       </c>
@@ -2348,17 +2353,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="A53:A55"/>
     <mergeCell ref="A33:A35"/>
     <mergeCell ref="A4:A10"/>
     <mergeCell ref="A12:A16"/>
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="A53:A55"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
